--- a/CODEBOOK.xlsx
+++ b/CODEBOOK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a9da02220da40e07/Documents/R project/R-Final-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="437" documentId="8_{CF0FFB77-4789-429F-8931-E0FDB221CF49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB9D1C16-5E9E-49DA-9DC2-C3E5D571A460}"/>
+  <xr:revisionPtr revIDLastSave="469" documentId="8_{CF0FFB77-4789-429F-8931-E0FDB221CF49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F86480D-691F-42A9-94C2-2087362EF359}"/>
   <bookViews>
-    <workbookView xWindow="3870" yWindow="3510" windowWidth="21600" windowHeight="11835" xr2:uid="{113C8F29-4A16-45FE-A3CA-F69CA94DEF64}"/>
+    <workbookView xWindow="37125" yWindow="2310" windowWidth="21600" windowHeight="11835" xr2:uid="{113C8F29-4A16-45FE-A3CA-F69CA94DEF64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>Name</t>
   </si>
@@ -131,6 +131,60 @@
   </si>
   <si>
     <t>Divided by "Emissions", "Year" and "Country" but only the Continents of "Asia", "Oceania", "Africa", "Central America", "Europe", "Middle East", "North America", "South America", and "World".</t>
+  </si>
+  <si>
+    <t>emicontrue.Rmd</t>
+  </si>
+  <si>
+    <t>fossil.R</t>
+  </si>
+  <si>
+    <t>Rmarkdown</t>
+  </si>
+  <si>
+    <t>R script</t>
+  </si>
+  <si>
+    <t>File conatining the code</t>
+  </si>
+  <si>
+    <t>File containing the webpage</t>
+  </si>
+  <si>
+    <t>gg</t>
+  </si>
+  <si>
+    <t>graph</t>
+  </si>
+  <si>
+    <t>a ggplot object that contains the line graph</t>
+  </si>
+  <si>
+    <t>ini_viz</t>
+  </si>
+  <si>
+    <t>sec_graph</t>
+  </si>
+  <si>
+    <t>A PNG image of the initial graph</t>
+  </si>
+  <si>
+    <t>A PNG imag of the second graph</t>
+  </si>
+  <si>
+    <t>viz_240188924</t>
+  </si>
+  <si>
+    <t>The final interactive graph</t>
+  </si>
+  <si>
+    <t>R_Final_Project</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>File containing all files on the github</t>
   </si>
 </sst>
 </file>
@@ -154,7 +208,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,6 +227,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -186,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -200,6 +260,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,17 +595,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E3475A-19E0-4070-9B41-C2C880076793}">
-  <dimension ref="A1:BU8"/>
+  <dimension ref="A1:BU16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="86" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" customWidth="1"/>
     <col min="4" max="4" width="169" customWidth="1"/>
   </cols>
   <sheetData>
@@ -679,6 +740,84 @@
         <v>279</v>
       </c>
     </row>
+    <row r="9" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:73" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:73" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
